--- a/ExcelFiles/s4_good_trials_GraspObject_GB_Images.xlsx
+++ b/ExcelFiles/s4_good_trials_GraspObject_GB_Images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2BF6-0DA4-4454-9CCA-C23D5977DC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72394F46-88E6-43A1-9621-BBA07FF30213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{F44569E9-BA93-490F-A699-F40E34592507}"/>
+    <workbookView xWindow="-14685" yWindow="3000" windowWidth="13755" windowHeight="15435" xr2:uid="{F44569E9-BA93-490F-A699-F40E34592507}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
